--- a/UseCaseIScenarij/GeneralniUseCase.xlsx
+++ b/UseCaseIScenarij/GeneralniUseCase.xlsx
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,13 +90,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,74 +417,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UseCaseIScenarij/GeneralniUseCase.xlsx
+++ b/UseCaseIScenarij/GeneralniUseCase.xlsx
@@ -22,9 +22,6 @@
     <t xml:space="preserve">Klijent </t>
   </si>
   <si>
-    <t>Baza podataka</t>
-  </si>
-  <si>
     <t>Uposlenik</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>1. Odobravanje zahtjeva</t>
+  </si>
+  <si>
+    <t>Analiza sadržaja</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -453,24 +453,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -507,7 +507,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -516,7 +516,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -531,7 +531,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
